--- a/数据整理/stocks/A股/北交所/835179-凯德石英.xlsx
+++ b/数据整理/stocks/A股/北交所/835179-凯德石英.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -583,7 +584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,17 +595,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -614,13 +635,217 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>014269</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实北交所精选两年定期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2360</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014663</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国创新发展两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014270</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实北交所精选两年定期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014664</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国创新发展两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/北交所/835179-凯德石英.xlsx
+++ b/数据整理/stocks/A股/北交所/835179-凯德石英.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,129 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>014663</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国创新发展两年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>37.11</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0867</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>014664</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国创新发展两年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>37.11</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0106</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -792,64 +728,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.38</v>
+          <t>014663</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国创新发展两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>37.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.1</v>
+          <t>014664</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国创新发展两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>37.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/北交所/835179-凯德石英.xlsx
+++ b/数据整理/stocks/A股/北交所/835179-凯德石英.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0.38</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -515,6 +532,366 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>014269</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实北交所精选两年定期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1654</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014279</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富北交所创新精选两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1501</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014663</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国创新发展两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>71.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014271</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成北交所两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>65.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014270</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实北交所精选两年定期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014280</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富北交所创新精选两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014272</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成北交所两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>65.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014664</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国创新发展两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>71.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -722,7 +1099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/北交所/835179-凯德石英.xlsx
+++ b/数据整理/stocks/A股/北交所/835179-凯德石英.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0.54</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.38</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -532,6 +549,442 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>014269</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实北交所精选两年定期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1715</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014279</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富北交所创新精选两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1631</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014275</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达北交所精选两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>70.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014663</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国创新发展两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014271</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成北交所两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>68.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014270</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实北交所精选两年定期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014280</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富北交所创新精选两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014276</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达北交所精选两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>70.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014272</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成北交所两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>68.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014664</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国创新发展两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -891,7 +1344,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1099,7 +1552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
